--- a/medicine/Pharmacie/Pharmacie_Caenevet/Pharmacie_Caenevet.xlsx
+++ b/medicine/Pharmacie/Pharmacie_Caenevet/Pharmacie_Caenevet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pharmacie Caenevet est une ancienne pharmacie située 6 place du Général-de-Gaulle à Wambrechies dans le département du Nord.
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'édifice est situé à Wambrechies, dans l'arrondissement de Lille et dans la Métropole européenne de Lille.
 </t>
@@ -542,9 +556,11 @@
           <t>Description historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Constant Lelong (1859-1937), pharmacien, s'installe au rez-de-chaussée d'un immeuble du XIXe siècle. Son agencement en rez-de-chaussée donne naissance à une pharmacie qui ouvre ses portes au centre de Wambrechies en 1908. Après la fin de la Première Guerre mondiale, il passe le flambeau à Maurice Lelong, un de ses enfants. En 1961, à 70 ans, ce dernier cède sa pharmacie à Jean Caenevet qui la transmet à sa fille Monique Roye-Caenevet en 1990. Cette dernière l'exploite jusqu'en 2013[1]. L'officine est ornée avec un décor de verres gravés, les vitraux viennent du maître-verrier lillois Ernest Haussaire. Des pots en faïence et des pièces de mobilier faits en chêne de Hongrie y sont exposés[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constant Lelong (1859-1937), pharmacien, s'installe au rez-de-chaussée d'un immeuble du XIXe siècle. Son agencement en rez-de-chaussée donne naissance à une pharmacie qui ouvre ses portes au centre de Wambrechies en 1908. Après la fin de la Première Guerre mondiale, il passe le flambeau à Maurice Lelong, un de ses enfants. En 1961, à 70 ans, ce dernier cède sa pharmacie à Jean Caenevet qui la transmet à sa fille Monique Roye-Caenevet en 1990. Cette dernière l'exploite jusqu'en 2013. L'officine est ornée avec un décor de verres gravés, les vitraux viennent du maître-verrier lillois Ernest Haussaire. Des pots en faïence et des pièces de mobilier faits en chêne de Hongrie y sont exposés.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'officine avec son décor de boiseries et sa porte en verre gravé, les vitraux de la cage d'escalier et de la salle à manger sont inscrits au titre des monuments historiques par arrêté du 20 mars 1986[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'officine avec son décor de boiseries et sa porte en verre gravé, les vitraux de la cage d'escalier et de la salle à manger sont inscrits au titre des monuments historiques par arrêté du 20 mars 1986.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Valorisation du patrimoine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une visite guidée a été organisée lors des Journées du Patrimoine 2017, 2018 et 2019[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une visite guidée a été organisée lors des Journées du Patrimoine 2017, 2018 et 2019,.
 </t>
         </is>
       </c>
